--- a/docs/CC.xlsx
+++ b/docs/CC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bitwise\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CS550\P2P-File-Sharing\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6A632C-FC65-4927-96AA-E407DB5291F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB84A39-17FF-4CE7-AE0B-1DA5D595A974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="local" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,8 +518,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9003,16 +9004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HA15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:HC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="GA1" workbookViewId="0">
+      <selection activeCell="GY11" sqref="GY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9640,8 +9641,12 @@
       <c r="HA1">
         <v>91</v>
       </c>
+      <c r="HC1" s="1">
+        <f>AVERAGE(B1:HA1)</f>
+        <v>96.384615384615387</v>
+      </c>
     </row>
-    <row r="2" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10215,8 +10220,12 @@
       <c r="GI2">
         <v>221</v>
       </c>
+      <c r="HC2" s="1">
+        <f>AVERAGE(B2:HA2)</f>
+        <v>204.83157894736843</v>
+      </c>
     </row>
-    <row r="3" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10844,8 +10853,12 @@
       <c r="HA3">
         <v>414</v>
       </c>
+      <c r="HC3" s="1">
+        <f>AVERAGE(B3:HA3)</f>
+        <v>406.97596153846155</v>
+      </c>
     </row>
-    <row r="4" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11449,8 +11462,12 @@
       <c r="GS4">
         <v>461</v>
       </c>
+      <c r="HC4" s="1">
+        <f>AVERAGE(B4:HA4)</f>
+        <v>503.93</v>
+      </c>
     </row>
-    <row r="5" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12078,8 +12095,12 @@
       <c r="HA5">
         <v>4147</v>
       </c>
+      <c r="HC5" s="1">
+        <f>AVERAGE(B5:HA5)</f>
+        <v>4629.0769230769229</v>
+      </c>
     </row>
-    <row r="6" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -12908,15 +12929,15 @@
         <v>95.666666666666671</v>
       </c>
       <c r="GZ6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(GY1:HA1)</f>
         <v>94.333333333333329</v>
       </c>
       <c r="HA6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(GZ1:HB1)</f>
         <v>94.5</v>
       </c>
     </row>
-    <row r="7" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -13685,12 +13706,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B7:Q10" si="7">AVERAGE(A3:C3)</f>
+        <f t="shared" ref="B8:Q10" si="7">AVERAGE(A3:C3)</f>
         <v>335</v>
       </c>
       <c r="C8">
@@ -14462,7 +14483,7 @@
         <v>317.66666666666669</v>
       </c>
       <c r="GM8">
-        <f t="shared" ref="GM7:HA8" si="8">AVERAGE(GL3:GN3)</f>
+        <f t="shared" ref="GM8:HA8" si="8">AVERAGE(GL3:GN3)</f>
         <v>348.33333333333331</v>
       </c>
       <c r="GN8">
@@ -14518,11 +14539,11 @@
         <v>375</v>
       </c>
       <c r="HA8">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(GZ3:HB3)</f>
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -15331,7 +15352,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -16164,11 +16185,11 @@
         <v>4283.333333333333</v>
       </c>
       <c r="HA10">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(GZ5:HB5)</f>
         <v>4826</v>
       </c>
     </row>
-    <row r="11" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -17001,11 +17022,11 @@
         <v>94.833333333333329</v>
       </c>
       <c r="HA11">
-        <f t="shared" si="16"/>
+        <f>AVERAGE(GZ6:HB6)</f>
         <v>94.416666666666657</v>
       </c>
     </row>
-    <row r="12" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -17526,7 +17547,7 @@
         <v>173.66666666666666</v>
       </c>
       <c r="EA12">
-        <f t="shared" ref="EA12:GL12" si="19">AVERAGE(DZ7:EB7)</f>
+        <f t="shared" ref="EA12:GJ12" si="19">AVERAGE(DZ7:EB7)</f>
         <v>180.33333333333334</v>
       </c>
       <c r="EB12">
@@ -17774,7 +17795,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -18607,11 +18628,11 @@
         <v>360.22222222222223</v>
       </c>
       <c r="HA13">
-        <f t="shared" si="23"/>
+        <f>AVERAGE(GZ8:HB8)</f>
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -19388,7 +19409,7 @@
         <v>517.88888888888891</v>
       </c>
       <c r="GM14">
-        <f t="shared" ref="GM14:HA14" si="27">AVERAGE(GL9:GN9)</f>
+        <f t="shared" ref="GM14:GT14" si="27">AVERAGE(GL9:GN9)</f>
         <v>438.11111111111114</v>
       </c>
       <c r="GN14">
@@ -19420,7 +19441,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -19429,7 +19450,7 @@
         <v>5449.25</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="B15:BM15" si="28">AVERAGE(B10:D10)</f>
+        <f t="shared" ref="C15:BM15" si="28">AVERAGE(B10:D10)</f>
         <v>6415.0555555555547</v>
       </c>
       <c r="D15">
